--- a/BNED.xlsx
+++ b/BNED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\Stock Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c5c57a972c999f1/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD6003-36EA-4868-A155-36CB3FA21B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6553EE0-442E-4BAA-B555-FBABE439A564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capVal" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,12 +418,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -486,7 +480,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -513,7 +507,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -830,22 +825,22 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>0</v>
       </c>
@@ -853,7 +848,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
@@ -861,7 +856,7 @@
         <v>52.045951000000002</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>2</v>
       </c>
@@ -870,7 +865,7 @@
         <v>143.64682475999999</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>3</v>
       </c>
@@ -878,13 +873,13 @@
         <v>9.9670000000000005</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -892,19 +887,19 @@
         <v>200.4</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>8</v>
       </c>
@@ -923,26 +918,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5A4864-F173-443E-90C3-9A96CE8F68D4}">
   <dimension ref="A5:AK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="X21" sqref="X21"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="11" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="16" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="21" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="26" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="31" width="9.140625" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="36" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="11" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="16" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="21" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="26" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="31" width="9.1796875" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="36" width="9.1796875" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,7 +1055,7 @@
         <v>May</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
@@ -1173,7 +1168,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1283,7 +1278,7 @@
       </c>
       <c r="AK7" s="12"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1417,7 +1412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1521,7 +1516,7 @@
       </c>
       <c r="AK9" s="13"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="G10" s="14"/>
       <c r="L10" s="14"/>
@@ -1531,7 +1526,7 @@
       <c r="AF10" s="14"/>
       <c r="AK10" s="14"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1641,7 +1636,7 @@
       </c>
       <c r="AK11" s="12"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1775,7 +1770,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1879,7 +1874,7 @@
       </c>
       <c r="AK13" s="13"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="19"/>
       <c r="C14" s="4"/>
@@ -1918,7 +1913,7 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2201,7 +2196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
@@ -2305,7 +2300,7 @@
       </c>
       <c r="AK17" s="20"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B18" s="14"/>
       <c r="G18" s="14"/>
       <c r="L18" s="14"/>
@@ -2315,7 +2310,7 @@
       <c r="AF18" s="14"/>
       <c r="AK18" s="14"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2425,7 +2420,7 @@
       </c>
       <c r="AK19" s="12"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2535,7 +2530,7 @@
       </c>
       <c r="AK20" s="15"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
@@ -2684,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2833,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2982,7 +2977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B24" s="14"/>
       <c r="G24" s="14"/>
       <c r="L24" s="14"/>
@@ -2992,7 +2987,7 @@
       <c r="AF24" s="14"/>
       <c r="AK24" s="14"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -3102,7 +3097,7 @@
       </c>
       <c r="AK25" s="12"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3212,7 +3207,7 @@
       </c>
       <c r="AK26" s="12"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3292,7 +3287,7 @@
       </c>
       <c r="AK27" s="12"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3392,7 +3387,7 @@
       </c>
       <c r="AK28" s="12"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3478,7 +3473,7 @@
       </c>
       <c r="AK29" s="12"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
@@ -3540,7 +3535,7 @@
       </c>
       <c r="AK30" s="15"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
@@ -3689,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -3838,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B34" s="14"/>
       <c r="G34" s="14"/>
       <c r="L34" s="14"/>
@@ -3997,7 +3992,7 @@
       <c r="AF34" s="14"/>
       <c r="AK34" s="14"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f t="shared" ref="A35:A41" si="88">A25</f>
         <v>SG&amp;A</v>
@@ -4147,7 +4142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f t="shared" si="88"/>
         <v>D&amp;A</v>
@@ -4297,7 +4292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f t="shared" si="88"/>
         <v>impairment</v>
@@ -4447,7 +4442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f t="shared" si="88"/>
         <v>restructuring</v>
@@ -4597,7 +4592,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f t="shared" si="88"/>
         <v xml:space="preserve">transaction </v>
@@ -4747,7 +4742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f t="shared" si="88"/>
         <v>other</v>
@@ -4897,7 +4892,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f t="shared" si="88"/>
         <v>operating expenses</v>
@@ -5047,7 +5042,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B42" s="14"/>
       <c r="G42" s="14"/>
       <c r="L42" s="14"/>
@@ -5057,7 +5052,7 @@
       <c r="AF42" s="14"/>
       <c r="AK42" s="14"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>58</v>
       </c>
@@ -5167,7 +5162,7 @@
       </c>
       <c r="AK43" s="15"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -5316,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -5465,7 +5460,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B46" s="14"/>
       <c r="G46" s="14"/>
       <c r="L46" s="14"/>
@@ -5475,7 +5470,7 @@
       <c r="AF46" s="14"/>
       <c r="AK46" s="14"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -5585,7 +5580,7 @@
       </c>
       <c r="AK47" s="12"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -5734,7 +5729,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B49" s="14"/>
       <c r="G49" s="14"/>
       <c r="L49" s="14"/>
@@ -5744,7 +5739,7 @@
       <c r="AF49" s="14"/>
       <c r="AK49" s="14"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5806,7 +5801,7 @@
       </c>
       <c r="AK50" s="12"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>63</v>
       </c>
@@ -5868,7 +5863,7 @@
       </c>
       <c r="AK51" s="15"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -6017,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -6166,7 +6161,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B54" s="14"/>
       <c r="G54" s="14"/>
       <c r="L54" s="14"/>
@@ -6176,7 +6171,7 @@
       <c r="AF54" s="14"/>
       <c r="AK54" s="14"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -6325,7 +6320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -6459,7 +6454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -6563,7 +6558,7 @@
       </c>
       <c r="AK57" s="13"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B58" s="14"/>
       <c r="G58" s="14"/>
       <c r="L58" s="14"/>
@@ -6573,7 +6568,7 @@
       <c r="AF58" s="14"/>
       <c r="AK58" s="14"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -6722,7 +6717,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -6856,7 +6851,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -6960,7 +6955,7 @@
       </c>
       <c r="AK61" s="13"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B62" s="14"/>
       <c r="G62" s="14"/>
       <c r="L62" s="14"/>
@@ -6970,7 +6965,7 @@
       <c r="AF62" s="14"/>
       <c r="AK62" s="14"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -7049,7 +7044,7 @@
       <c r="AF63" s="14"/>
       <c r="AK63" s="14"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>41</v>
       </c>
@@ -7183,7 +7178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -7287,7 +7282,7 @@
       </c>
       <c r="AK65" s="13"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="B66" s="14"/>
       <c r="G66" s="14"/>
       <c r="L66" s="14"/>
@@ -7297,7 +7292,7 @@
       <c r="AF66" s="14"/>
       <c r="AK66" s="14"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>68</v>
       </c>
@@ -7376,7 +7371,7 @@
       <c r="AF67" s="14"/>
       <c r="AK67" s="14"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -7510,7 +7505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>42</v>
       </c>
@@ -7625,26 +7620,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E9BF4F-9044-42A4-8643-4A1DCABA4EA0}">
   <dimension ref="A5:AK35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="W11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="AJ31" sqref="AJ31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" outlineLevel="1"/>
-    <col min="8" max="11" width="9.140625" outlineLevel="1"/>
-    <col min="13" max="16" width="9.140625" outlineLevel="1"/>
-    <col min="18" max="21" width="9.140625" outlineLevel="1"/>
-    <col min="23" max="26" width="9.140625" outlineLevel="1"/>
-    <col min="28" max="31" width="9.140625" outlineLevel="1"/>
-    <col min="33" max="36" width="9.140625" outlineLevel="1"/>
+    <col min="1" max="1" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.1796875" outlineLevel="1"/>
+    <col min="8" max="11" width="9.1796875" outlineLevel="1"/>
+    <col min="13" max="16" width="9.1796875" outlineLevel="1"/>
+    <col min="18" max="21" width="9.1796875" outlineLevel="1"/>
+    <col min="23" max="26" width="9.1796875" outlineLevel="1"/>
+    <col min="28" max="31" width="9.1796875" outlineLevel="1"/>
+    <col min="33" max="36" width="9.1796875" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -7762,7 +7757,7 @@
         <v>May</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>73</v>
       </c>
@@ -7875,134 +7870,2066 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <f>income!B52</f>
+        <v>8.4000000000047592E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <f>income!C52</f>
+        <v>-27.916000000000025</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7+income!D52</f>
+        <v>1.3729999999999762</v>
+      </c>
+      <c r="E7" s="3">
+        <f>D7+income!E52</f>
+        <v>5.1339999999999835</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="12">
+        <f>income!G52</f>
+        <v>5.3610000000001197</v>
+      </c>
+      <c r="H7" s="3">
+        <f>income!H52</f>
+        <v>-34.783000000000015</v>
+      </c>
+      <c r="I7" s="3">
+        <f>H7+income!I52</f>
+        <v>13.611999999999902</v>
+      </c>
+      <c r="J7" s="3">
+        <f>I7+income!J52</f>
+        <v>-269.62300000000005</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="12">
+        <f>income!L52</f>
+        <v>-252.56599999999972</v>
+      </c>
+      <c r="M7" s="3">
+        <f>income!M52</f>
+        <v>-38.621999999999986</v>
+      </c>
+      <c r="N7" s="3">
+        <f>M7+income!N52</f>
+        <v>21.075000000000003</v>
+      </c>
+      <c r="O7" s="3">
+        <f>N7+income!O52</f>
+        <v>21.843999999999991</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="12">
+        <f>income!Q52</f>
+        <v>-24.373999999999882</v>
+      </c>
+      <c r="R7" s="3">
+        <f>income!R52</f>
+        <v>-32.155000000000022</v>
+      </c>
+      <c r="S7" s="3">
+        <f>R7+income!S52</f>
+        <v>3.776000000000046</v>
+      </c>
+      <c r="T7" s="3">
+        <f>S7+income!T52</f>
+        <v>2.083000000000014</v>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="V7" s="12">
+        <f>income!V52</f>
+        <v>-38.249999999999787</v>
+      </c>
+      <c r="W7" s="3">
+        <f>income!W52</f>
+        <v>-46.651999999999987</v>
+      </c>
+      <c r="X7" s="3">
+        <f>W7+income!X52</f>
+        <v>-39.137000000000015</v>
+      </c>
+      <c r="Y7" s="3">
+        <f>X7+income!Y52</f>
+        <v>-87.426000000000073</v>
+      </c>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="12">
+        <f>income!AA52</f>
+        <v>-131.78699999999986</v>
+      </c>
+      <c r="AB7" s="3">
+        <f>income!AB52</f>
+        <v>-44.346000000000004</v>
+      </c>
+      <c r="AC7" s="3">
+        <f>AB7+income!AC52</f>
+        <v>-21.818000000000033</v>
+      </c>
+      <c r="AD7" s="3">
+        <f>AC7+income!AD52</f>
+        <v>-58.619000000000028</v>
+      </c>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="12">
+        <f>income!AF52</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3">
+        <f>income!AG52</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="3">
+        <f>AG7+income!AH52</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="3">
+        <f>AH7+income!AI52</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="12">
+        <f>income!AK52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="12">
+        <v>65.864999999999995</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="12">
+        <v>61.86</v>
+      </c>
+      <c r="W8" s="3">
+        <v>14.063000000000001</v>
+      </c>
+      <c r="X8" s="3">
+        <v>27.256</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>40.563000000000002</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="12">
+        <v>52.966999999999999</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>12.624000000000001</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>24.576000000000001</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>36.755000000000003</v>
+      </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="12"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="12">
+        <v>57.747999999999998</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="12">
+        <v>0.433</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3">
+        <v>27.63</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="12">
+        <v>27.63</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3">
+        <v>6.4109999999999996</v>
+      </c>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="12"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="12">
+        <v>14.96</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0.434</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0.434</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0.434</v>
+      </c>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="12"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="12">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="12">
+        <v>4.0819999999999999</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="X11" s="3">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="12">
+        <v>5.0339999999999998</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>2.5859999999999999</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>3.984</v>
+      </c>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="12"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="12">
+        <v>1.55</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="12">
+        <v>1.095</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.27</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="12">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1.087</v>
+      </c>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="12"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="12">
+        <v>-4.5309999999999997</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="12">
+        <v>-5.38</v>
+      </c>
+      <c r="W13" s="3">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="X13" s="3">
+        <v>-0.42599999999999999</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>-7.1790000000000003</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="12">
+        <v>-15.443</v>
+      </c>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="12"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="12">
+        <v>9.0169999999999995</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="12">
+        <v>6.6379999999999999</v>
+      </c>
+      <c r="W14" s="3">
+        <v>1.5209999999999999</v>
+      </c>
+      <c r="X14" s="3">
+        <v>2.7010000000000001</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>3.8570000000000002</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="12">
+        <v>5.0949999999999998</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>4.4630000000000001</v>
+      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="12"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="12">
+        <v>-5.34</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="12">
+        <v>18.399000000000001</v>
+      </c>
+      <c r="W15" s="3">
+        <v>-6.77</v>
+      </c>
+      <c r="X15" s="3">
+        <v>6.5970000000000004</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>11.936999999999999</v>
+      </c>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="12">
+        <v>-4.367</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>-10.464</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="12"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="12">
+        <v>20.76</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="12">
+        <v>-58.5</v>
+      </c>
+      <c r="W16" s="3">
+        <v>-17.515000000000001</v>
+      </c>
+      <c r="X16" s="3">
+        <v>86.451999999999998</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>36.402000000000001</v>
+      </c>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="12">
+        <v>68.442999999999998</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>19.716999999999999</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>13.291</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>10.988</v>
+      </c>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="12"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15">
+        <f>B18-SUM(B7:B16)</f>
+        <v>-8.4000000000047592E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:AK17" si="6">C18-SUM(C7:C16)</f>
+        <v>27.916000000000025</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.3729999999999762</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="6"/>
+        <v>-5.1339999999999835</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="15">
+        <f t="shared" si="6"/>
+        <v>-5.3610000000001197</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="6"/>
+        <v>34.783000000000015</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="6"/>
+        <v>-13.611999999999902</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="6"/>
+        <v>269.62300000000005</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="15">
+        <f t="shared" si="6"/>
+        <v>252.56599999999972</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="6"/>
+        <v>38.621999999999986</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="6"/>
+        <v>-21.075000000000003</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="6"/>
+        <v>-21.843999999999991</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="15">
+        <f t="shared" si="6"/>
+        <v>-1.1368683772161603E-13</v>
+      </c>
+      <c r="R17" s="5">
+        <f t="shared" si="6"/>
+        <v>32.155000000000022</v>
+      </c>
+      <c r="S17" s="5">
+        <f t="shared" si="6"/>
+        <v>-3.776000000000046</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="6"/>
+        <v>-2.083000000000014</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="V17" s="15">
+        <f t="shared" si="6"/>
+        <v>0.94699999999978424</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4239999999999782</v>
+      </c>
+      <c r="X17" s="5">
+        <f t="shared" si="6"/>
+        <v>5.0160000000000053</v>
+      </c>
+      <c r="Y17" s="5">
+        <f t="shared" si="6"/>
+        <v>10.878000000000078</v>
+      </c>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="15">
+        <f t="shared" si="6"/>
+        <v>9.2379999999998645</v>
+      </c>
+      <c r="AB17" s="5">
+        <f t="shared" si="6"/>
+        <v>1.8140000000000036</v>
+      </c>
+      <c r="AC17" s="5">
+        <f t="shared" si="6"/>
+        <v>1.4620000000000353</v>
+      </c>
+      <c r="AD17" s="5">
+        <f t="shared" si="6"/>
+        <v>1.8080000000000274</v>
+      </c>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="12">
+        <v>121.791</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="12">
+        <v>-8.6760000000000002</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-53.149000000000001</v>
+      </c>
+      <c r="X18" s="3">
+        <v>91.385999999999996</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>41.173000000000002</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="12">
+        <v>32.881999999999998</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>-17.462</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>24.141999999999999</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>7.9009999999999998</v>
+      </c>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="12"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B19" s="12"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="12"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="12">
+        <v>-46.42</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="12">
+        <v>-36.192</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-7.0549999999999997</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-16.196999999999999</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-25.91</v>
+      </c>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="12">
+        <v>-37.222999999999999</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>-11.37</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>-21.263999999999999</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>-33.393000000000001</v>
+      </c>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="12"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="12">
+        <v>-10</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="12"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15">
+        <f>B23-SUM(B20:B21)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" ref="C22:AK22" si="7">C23-SUM(C20:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="15">
+        <f t="shared" si="7"/>
+        <v>0.80000000000000426</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="5"/>
+      <c r="V22" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.82699999999999818</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" si="7"/>
+        <v>-8.4999999999999964E-2</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="7"/>
+        <v>3.0000000000001137E-3</v>
+      </c>
+      <c r="Y22" s="5">
+        <f t="shared" si="7"/>
+        <v>0.33500000000000085</v>
+      </c>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="15">
+        <f t="shared" si="7"/>
+        <v>0.34799999999999898</v>
+      </c>
+      <c r="AB22" s="5">
+        <f t="shared" si="7"/>
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="AC22" s="5">
+        <f t="shared" si="7"/>
+        <v>0.46000000000000085</v>
+      </c>
+      <c r="AD22" s="5">
+        <f t="shared" si="7"/>
+        <v>0.73400000000000176</v>
+      </c>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="12">
+        <v>-55.62</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="12">
+        <v>-37.018999999999998</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-7.14</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-16.193999999999999</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-25.574999999999999</v>
+      </c>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="12">
+        <v>-36.875</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-11.02</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-20.803999999999998</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>-32.658999999999999</v>
+      </c>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="12"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B24" s="12"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="12"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="12">
+        <v>521.20000000000005</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="12">
+        <v>600.9</v>
+      </c>
+      <c r="W25" s="3">
+        <v>186.7</v>
+      </c>
+      <c r="X25" s="3">
+        <v>330.8</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>547.6</v>
+      </c>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="12">
+        <v>722.6</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>71.72</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>259.72000000000003</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>463.22</v>
+      </c>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="12"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="12">
+        <v>-584.1</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="12">
+        <v>-559.70000000000005</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-126.84</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-406</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-571.5</v>
+      </c>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="12">
+        <v>-719.7</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>-45.62</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-254.02</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-440.42</v>
+      </c>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="12"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="12">
+        <v>-3.395</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="12">
+        <v>-1.0760000000000001</v>
+      </c>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="12"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3">
+        <v>10.869</v>
+      </c>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="12">
+        <v>10.869</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="12"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="12">
+        <v>-1.9770000000000001</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="12">
+        <v>-1.2649999999999999</v>
+      </c>
+      <c r="W29" s="3">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="X29" s="3">
+        <v>-0.88100000000000001</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>-0.89400000000000002</v>
+      </c>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="12">
+        <v>-0.89400000000000002</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>-1.2150000000000001</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>-2.359</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>-2.37</v>
+      </c>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="12"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15">
+        <f>B31-SUM(B25:B29)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" ref="C30:AK30" si="8">C31-SUM(C25:C29)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="5"/>
+      <c r="V30" s="15">
+        <f t="shared" si="8"/>
+        <v>7.1054273576010019E-14</v>
+      </c>
+      <c r="W30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="5">
+        <f t="shared" si="8"/>
+        <v>-2.3092638912203256E-14</v>
+      </c>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="15">
+        <f t="shared" si="8"/>
+        <v>2.3092638912203256E-14</v>
+      </c>
+      <c r="AB30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5">
+        <f t="shared" si="8"/>
+        <v>3.6999999999983046E-2</v>
+      </c>
+      <c r="AD30" s="5">
+        <f t="shared" si="8"/>
+        <v>0.25599999999998957</v>
+      </c>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="12">
+        <v>-68.272000000000006</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="12">
+        <v>39.935000000000002</v>
+      </c>
+      <c r="W31" s="3">
+        <v>59.518000000000001</v>
+      </c>
+      <c r="X31" s="3">
+        <v>-76.081000000000003</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>-13.925000000000001</v>
+      </c>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="12">
+        <v>11.798999999999999</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>24.885000000000002</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>3.3780000000000001</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>20.686</v>
+      </c>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="12"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="B32" s="12"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="12"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="B33" s="12">
+        <f>SUM(B31,B23,B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:AK33" si="9">SUM(C31,C23,C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="12">
+        <f t="shared" si="9"/>
+        <v>-2.1009999999999991</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="3"/>
+      <c r="V33" s="12">
+        <f t="shared" si="9"/>
+        <v>-5.7599999999999962</v>
+      </c>
+      <c r="W33" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.7710000000000008</v>
+      </c>
+      <c r="X33" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.88900000000001</v>
+      </c>
+      <c r="Y33" s="3">
+        <f t="shared" si="9"/>
+        <v>1.6730000000000018</v>
+      </c>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="12">
+        <f t="shared" si="9"/>
+        <v>7.8059999999999974</v>
+      </c>
+      <c r="AB33" s="3">
+        <f t="shared" si="9"/>
+        <v>-3.5969999999999978</v>
+      </c>
+      <c r="AC33" s="3">
+        <f t="shared" si="9"/>
+        <v>6.7160000000000011</v>
+      </c>
+      <c r="AD33" s="3">
+        <f t="shared" si="9"/>
+        <v>-4.0719999999999992</v>
+      </c>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="5">
+        <f>$B$35</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <f t="shared" ref="D34:G34" si="10">$B$35</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <f>$G$35</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" ref="I34:L34" si="11">$G$35</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="5">
+        <f>$L$35</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" ref="N34:Q34" si="12">$L$35</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="5">
+        <f>$Q$35</f>
+        <v>-2.1009999999999991</v>
+      </c>
+      <c r="S34" s="5">
+        <f t="shared" ref="S34:V34" si="13">$Q$35</f>
+        <v>-2.1009999999999991</v>
+      </c>
+      <c r="T34" s="5">
+        <f t="shared" si="13"/>
+        <v>-2.1009999999999991</v>
+      </c>
+      <c r="U34" s="5"/>
+      <c r="V34" s="15">
+        <f t="shared" si="13"/>
+        <v>-2.1009999999999991</v>
+      </c>
+      <c r="W34" s="5">
+        <f>$V$35</f>
+        <v>-7.8609999999999953</v>
+      </c>
+      <c r="X34" s="5">
+        <f t="shared" ref="X34:AA34" si="14">$V$35</f>
+        <v>-7.8609999999999953</v>
+      </c>
+      <c r="Y34" s="5">
+        <f t="shared" si="14"/>
+        <v>-7.8609999999999953</v>
+      </c>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="15">
+        <f t="shared" si="14"/>
+        <v>-7.8609999999999953</v>
+      </c>
+      <c r="AB34" s="5">
+        <f>$AA$35</f>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AC34" s="5">
+        <f t="shared" ref="AC34:AF34" si="15">$AA$35</f>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AD34" s="5">
+        <f t="shared" si="15"/>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="15">
+        <f t="shared" si="15"/>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AG34" s="5">
+        <f>$AF$35</f>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AH34" s="5">
+        <f t="shared" ref="AH34:AK34" si="16">$AF$35</f>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" si="16"/>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="15">
+        <f t="shared" si="16"/>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" s="22" t="s">
         <v>94</v>
+      </c>
+      <c r="B35" s="12">
+        <f>SUM(B33:B34)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" ref="C35:AK35" si="17">SUM(C33:C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="12">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="12">
+        <f t="shared" si="17"/>
+        <v>-2.1009999999999991</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="17"/>
+        <v>-2.1009999999999991</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="17"/>
+        <v>-2.1009999999999991</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="17"/>
+        <v>-2.1009999999999991</v>
+      </c>
+      <c r="U35" s="3"/>
+      <c r="V35" s="12">
+        <f t="shared" si="17"/>
+        <v>-7.8609999999999953</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" si="17"/>
+        <v>-8.6319999999999961</v>
+      </c>
+      <c r="X35" s="3">
+        <f t="shared" si="17"/>
+        <v>-8.7500000000000053</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" si="17"/>
+        <v>-6.1879999999999935</v>
+      </c>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AB35" s="3">
+        <f t="shared" si="17"/>
+        <v>-3.6519999999999957</v>
+      </c>
+      <c r="AC35" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6610000000000031</v>
+      </c>
+      <c r="AD35" s="3">
+        <f t="shared" si="17"/>
+        <v>-4.1269999999999971</v>
+      </c>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AG35" s="3">
+        <f t="shared" si="17"/>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AH35" s="3">
+        <f t="shared" si="17"/>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AI35" s="3">
+        <f t="shared" si="17"/>
+        <v>-5.4999999999997939E-2</v>
+      </c>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="12">
+        <f t="shared" si="17"/>
+        <v>-5.4999999999997939E-2</v>
       </c>
     </row>
   </sheetData>
